--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,41 @@
         <v>302000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>192000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,41 @@
         <v>192000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1470000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43625,6 +43625,41 @@
         <v>1470000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2483000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43660,6 +43660,41 @@
         <v>2483000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>317100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43695,6 +43695,41 @@
         <v>317100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>580000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43730,6 +43730,41 @@
         <v>580000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>108000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,41 @@
         <v>108000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>678000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,41 @@
         <v>678000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>555000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43835,6 +43835,41 @@
         <v>555000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1247700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43870,6 +43870,41 @@
         <v>1247700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>173000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43905,6 +43905,41 @@
         <v>173000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>605400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43940,6 +43940,41 @@
         <v>605400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>209000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43975,6 +43975,76 @@
         <v>209000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>469000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>7365800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44045,6 +44045,76 @@
         <v>7365800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10331800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>296000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44115,6 +44115,41 @@
         <v>296000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>693500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44150,6 +44150,41 @@
         <v>693500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1732500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44185,6 +44185,41 @@
         <v>1732500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1177000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44220,6 +44220,41 @@
         <v>1177000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>9516000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44255,6 +44255,76 @@
         <v>9516000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2374200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>195000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44325,6 +44325,41 @@
         <v>195000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>259200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44360,6 +44360,41 @@
         <v>259200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>5692100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1995"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70785,6 +70785,41 @@
         <v>5692100</v>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>2916800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70820,6 +70820,41 @@
         <v>2916800</v>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>1568000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1997"/>
+  <dimension ref="A1:I1998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70855,6 +70855,41 @@
         <v>1568000</v>
       </c>
     </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>284500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1998"/>
+  <dimension ref="A1:I1999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70890,6 +70890,41 @@
         <v>284500</v>
       </c>
     </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>3162500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1999"/>
+  <dimension ref="A1:I2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70925,6 +70925,41 @@
         <v>3162500</v>
       </c>
     </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>2881300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2000"/>
+  <dimension ref="A1:I2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70960,6 +70960,41 @@
         <v>2881300</v>
       </c>
     </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>798000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2001"/>
+  <dimension ref="A1:I2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70995,6 +70995,41 @@
         <v>798000</v>
       </c>
     </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>1501200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2002"/>
+  <dimension ref="A1:I2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71030,6 +71030,41 @@
         <v>1501200</v>
       </c>
     </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>1148400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2003"/>
+  <dimension ref="A1:I2004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71065,6 +71065,41 @@
         <v>1148400</v>
       </c>
     </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2004" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2004" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2004" t="n">
+        <v>1524500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2004"/>
+  <dimension ref="A1:I2005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71100,6 +71100,41 @@
         <v>1524500</v>
       </c>
     </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2005" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2005" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2005" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2005" t="n">
+        <v>1557800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2005"/>
+  <dimension ref="A1:I2006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71135,6 +71135,43 @@
         <v>1557800</v>
       </c>
     </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2006" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2006" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2006" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2006" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2006"/>
+  <dimension ref="A1:I2007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71172,6 +71172,41 @@
         </is>
       </c>
     </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2007" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2007" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2007" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2007" t="n">
+        <v>134100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2007"/>
+  <dimension ref="A1:I2008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71207,6 +71207,41 @@
         <v>134100</v>
       </c>
     </row>
+    <row r="2008">
+      <c r="A2008" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2008" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2008" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2008" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2008" t="n">
+        <v>1099300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2008"/>
+  <dimension ref="A1:I2009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71242,6 +71242,41 @@
         <v>1099300</v>
       </c>
     </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2009" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2009" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2009" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2009" t="n">
+        <v>1013200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7097.xlsx
+++ b/data/7097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2009"/>
+  <dimension ref="A1:I2010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71277,6 +71277,41 @@
         <v>1013200</v>
       </c>
     </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>TAWIN</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2010" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2010" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2010" t="n">
+        <v>2558700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
